--- a/translation/xlsx/_tsum_023_1.xlsx
+++ b/translation/xlsx/_tsum_023_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="1722">
   <si>
     <t>actor</t>
   </si>
@@ -1587,7 +1587,7 @@
     <t>\"Why don't you ask what's in your chest?</t>
   </si>
   <si>
-    <t xml:space="preserve">\"그건 댁 양심에나 물어봐. </t>
+    <t xml:space="preserve">\"그건 댁 가슴에나 물어봐. </t>
   </si>
   <si>
     <t xml:space="preserve">\"그거야 당신 스스로에게 물어보라고. </t>
@@ -1605,13 +1605,16 @@
     <t xml:space="preserve"> It might know something.\"</t>
   </si>
   <si>
+    <t xml:space="preserve">본인의 가슴에 말이야.\" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">본인의 마음에 말이야.\" </t>
+  </si>
+  <si>
+    <t>자신의 그 가슴에..</t>
+  </si>
+  <si>
     <t xml:space="preserve">본인의 양심에 말이야.\" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">본인의 마음에 말이야.\" </t>
-  </si>
-  <si>
-    <t>자신의 그 가슴에..</t>
   </si>
   <si>
     <t>「……大石さん。</t>
@@ -5268,7 +5271,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5287,6 +5290,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7993,7 +7999,7 @@
       <c r="C107" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="8" t="s">
         <v>523</v>
       </c>
       <c r="G107" s="2"/>
@@ -8015,7 +8021,7 @@
       <c r="C108" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="8" t="s">
         <v>529</v>
       </c>
       <c r="G108" s="2"/>
@@ -8027,7 +8033,7 @@
         <v>531</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
@@ -8035,68 +8041,68 @@
         <v>245</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="5"/>
       <c r="I109" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J109" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="K109" s="4" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="B110" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="5"/>
       <c r="I110" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J110" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>539</v>
-      </c>
-      <c r="K110" s="4" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="B111" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="5"/>
       <c r="I111" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
@@ -8104,24 +8110,24 @@
         <v>27</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="5"/>
       <c r="I112" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>549</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K112" s="4" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
@@ -8129,68 +8135,68 @@
         <v>245</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="5"/>
       <c r="I113" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J113" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="B114" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="5"/>
       <c r="I114" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>559</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="K114" s="4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="B115" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="5"/>
       <c r="I115" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J115" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
@@ -8198,24 +8204,24 @@
         <v>245</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="5"/>
       <c r="I116" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
@@ -8223,46 +8229,46 @@
         <v>27</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="5"/>
       <c r="I117" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J117" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="K117" s="4" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="B118" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="5"/>
       <c r="I118" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
@@ -8292,112 +8298,112 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="B120" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="5"/>
       <c r="I120" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>586</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="K120" s="4" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="B121" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="5"/>
       <c r="I121" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="B122" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="5"/>
       <c r="I122" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="K122" s="4" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="B123" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="5"/>
       <c r="I123" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="K123" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="K123" s="7" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="B124" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G124" s="2"/>
       <c r="H124" s="5"/>
       <c r="I124" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="K124" s="4" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
@@ -8405,24 +8411,24 @@
         <v>27</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G125" s="2"/>
       <c r="H125" s="5"/>
       <c r="I125" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
@@ -8430,68 +8436,68 @@
         <v>88</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="5"/>
       <c r="I126" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="J126" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="K126" s="4" t="s">
         <v>617</v>
-      </c>
-      <c r="K126" s="4" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="B127" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="5"/>
       <c r="I127" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="B128" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="5"/>
       <c r="I128" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>627</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="K128" s="4" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
@@ -8499,24 +8505,24 @@
         <v>27</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="5"/>
       <c r="I129" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
@@ -8524,68 +8530,68 @@
         <v>88</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G130" s="2"/>
       <c r="H130" s="5"/>
       <c r="I130" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="J130" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="B131" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G131" s="2"/>
       <c r="H131" s="5"/>
       <c r="I131" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>642</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="K131" s="4" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="B132" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G132" s="2"/>
       <c r="H132" s="5"/>
       <c r="I132" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J132" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>647</v>
-      </c>
-      <c r="K132" s="4" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
@@ -8593,46 +8599,46 @@
         <v>27</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="5"/>
       <c r="I133" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J133" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>651</v>
-      </c>
-      <c r="K133" s="4" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="B134" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G134" s="2"/>
       <c r="H134" s="5"/>
       <c r="I134" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>655</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="K134" s="4" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
@@ -8640,46 +8646,46 @@
         <v>88</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G135" s="2"/>
       <c r="H135" s="5"/>
       <c r="I135" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>660</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="K135" s="4" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="B136" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G136" s="2"/>
       <c r="H136" s="5"/>
       <c r="I136" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
@@ -8687,24 +8693,24 @@
         <v>27</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="5"/>
       <c r="I137" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
@@ -8712,24 +8718,24 @@
         <v>88</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="5"/>
       <c r="I138" s="4" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J138" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>677</v>
-      </c>
-      <c r="K138" s="4" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
@@ -8737,24 +8743,24 @@
         <v>270</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G139" s="2"/>
       <c r="H139" s="5"/>
       <c r="I139" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>681</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="K139" s="4" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
@@ -8762,24 +8768,24 @@
         <v>88</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="5"/>
       <c r="I140" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>686</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="K140" s="4" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
@@ -8787,10 +8793,10 @@
         <v>27</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>120</v>
@@ -8798,57 +8804,57 @@
       <c r="G141" s="2"/>
       <c r="H141" s="5"/>
       <c r="I141" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J141" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="K141" s="4" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="B142" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G142" s="2"/>
       <c r="H142" s="5"/>
       <c r="I142" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="B143" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G143" s="2"/>
       <c r="H143" s="5"/>
       <c r="I143" s="4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
@@ -8856,24 +8862,24 @@
         <v>27</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="5"/>
       <c r="I144" s="4" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
@@ -8881,90 +8887,90 @@
         <v>245</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G145" s="2"/>
       <c r="H145" s="5"/>
       <c r="I145" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J145" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>709</v>
-      </c>
-      <c r="K145" s="4" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="B146" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="5"/>
       <c r="I146" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>713</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="K146" s="4" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="B147" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="G147" s="8"/>
-      <c r="H147" s="9"/>
+        <v>718</v>
+      </c>
+      <c r="G147" s="9"/>
+      <c r="H147" s="10"/>
       <c r="I147" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>718</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="K147" s="4" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="B148" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="D148" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="G148" s="8"/>
-      <c r="H148" s="9"/>
+      <c r="D148" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="G148" s="9"/>
+      <c r="H148" s="10"/>
       <c r="I148" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="K148" s="11" t="s">
         <v>723</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="K148" s="10" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
@@ -8972,90 +8978,90 @@
         <v>270</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G149" s="2"/>
       <c r="H149" s="5"/>
       <c r="I149" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="J149" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>728</v>
-      </c>
-      <c r="K149" s="4" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="B150" s="4" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G150" s="2"/>
       <c r="H150" s="5"/>
       <c r="I150" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>732</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="K150" s="4" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="B151" s="4" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G151" s="2"/>
       <c r="H151" s="5"/>
       <c r="I151" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>737</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="K151" s="4" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="B152" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G152" s="2"/>
       <c r="H152" s="5"/>
       <c r="I152" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>742</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="K152" s="4" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
@@ -9063,24 +9069,24 @@
         <v>270</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G153" s="2"/>
       <c r="H153" s="5"/>
       <c r="I153" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>747</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="K153" s="4" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
@@ -9088,134 +9094,134 @@
         <v>27</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G154" s="2"/>
       <c r="H154" s="5"/>
       <c r="I154" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>752</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="K154" s="4" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="B155" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="5"/>
       <c r="I155" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>757</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="K155" s="4" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="B156" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G156" s="2"/>
       <c r="H156" s="5"/>
       <c r="I156" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="K156" s="6" t="s">
         <v>762</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="K156" s="6" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="B157" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G157" s="2"/>
       <c r="H157" s="5"/>
       <c r="I157" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>767</v>
-      </c>
-      <c r="J157" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="K157" s="4" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="B158" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G158" s="2"/>
       <c r="H158" s="5"/>
       <c r="I158" s="4" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="B159" s="4" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G159" s="2"/>
       <c r="H159" s="5"/>
       <c r="I159" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>778</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="K159" s="4" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
@@ -9223,24 +9229,24 @@
         <v>245</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G160" s="2"/>
       <c r="H160" s="5"/>
       <c r="I160" s="4" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
@@ -9248,178 +9254,178 @@
         <v>27</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G161" s="2"/>
       <c r="H161" s="5"/>
       <c r="I161" s="4" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="B162" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G162" s="2"/>
       <c r="H162" s="5"/>
       <c r="I162" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>794</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="K162" s="4" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="B163" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G163" s="2"/>
       <c r="H163" s="5"/>
       <c r="I163" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>799</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="K163" s="4" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="B164" s="4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G164" s="2"/>
       <c r="H164" s="5"/>
       <c r="I164" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>804</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="K164" s="4" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="B165" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="G165" s="2"/>
       <c r="H165" s="5"/>
       <c r="I165" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>809</v>
-      </c>
-      <c r="J165" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="K165" s="4" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="B166" s="4" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G166" s="2"/>
       <c r="H166" s="5"/>
       <c r="I166" s="4" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="B167" s="4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G167" s="2"/>
       <c r="H167" s="5"/>
       <c r="I167" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="J167" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="K167" s="4" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="B168" s="4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="D168" s="11" t="s">
         <v>824</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>825</v>
       </c>
       <c r="G168" s="2"/>
       <c r="H168" s="5"/>
-      <c r="I168" s="11" t="s">
+      <c r="I168" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="K168" s="12" t="s">
         <v>825</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="K168" s="11" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
@@ -9427,310 +9433,310 @@
         <v>27</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G169" s="2"/>
       <c r="H169" s="5"/>
       <c r="I169" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="B170" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G170" s="2"/>
       <c r="H170" s="5"/>
       <c r="I170" s="4" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J170" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>837</v>
-      </c>
-      <c r="K170" s="4" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="B171" s="4" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G171" s="2"/>
       <c r="H171" s="5"/>
       <c r="I171" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>841</v>
-      </c>
-      <c r="J171" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="K171" s="4" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="B172" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G172" s="2"/>
       <c r="H172" s="5"/>
       <c r="I172" s="4" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="K172" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="B173" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G173" s="2"/>
       <c r="H173" s="5"/>
       <c r="I173" s="4" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="B174" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="G174" s="2"/>
       <c r="H174" s="5"/>
       <c r="I174" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="K174" s="6" t="s">
         <v>858</v>
-      </c>
-      <c r="J174" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="K174" s="6" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="B175" s="4" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G175" s="2"/>
       <c r="H175" s="5"/>
       <c r="I175" s="4" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="B176" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G176" s="2"/>
       <c r="H176" s="5"/>
       <c r="I176" s="4" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="K176" s="4" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="B177" s="4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G177" s="2"/>
       <c r="H177" s="5"/>
       <c r="I177" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>874</v>
-      </c>
-      <c r="J177" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="K177" s="4" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="B178" s="4" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G178" s="2"/>
       <c r="H178" s="5"/>
       <c r="I178" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="K178" s="4" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="B179" s="4" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G179" s="2"/>
       <c r="H179" s="5"/>
       <c r="I179" s="4" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K179" s="4" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="B180" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G180" s="2"/>
       <c r="H180" s="5"/>
       <c r="I180" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>891</v>
-      </c>
-      <c r="J180" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="K180" s="4" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="B181" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G181" s="2"/>
       <c r="H181" s="5"/>
       <c r="I181" s="4" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="B182" s="4" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G182" s="2"/>
       <c r="H182" s="5"/>
       <c r="I182" s="4" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="K182" s="7" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
@@ -9738,46 +9744,46 @@
         <v>27</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G183" s="2"/>
       <c r="H183" s="5"/>
       <c r="I183" s="4" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="J183" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>908</v>
-      </c>
-      <c r="K183" s="4" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="B184" s="4" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G184" s="2"/>
       <c r="H184" s="5"/>
       <c r="I184" s="4" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="J184" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>912</v>
-      </c>
-      <c r="K184" s="4" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
@@ -9785,24 +9791,24 @@
         <v>245</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G185" s="2"/>
       <c r="H185" s="5"/>
       <c r="I185" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>916</v>
-      </c>
-      <c r="J185" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="K185" s="4" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
@@ -9810,46 +9816,46 @@
         <v>27</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G186" s="2"/>
       <c r="H186" s="5"/>
       <c r="I186" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="J186" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>921</v>
-      </c>
-      <c r="K186" s="4" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="B187" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="G187" s="2"/>
       <c r="H187" s="5"/>
       <c r="I187" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>925</v>
-      </c>
-      <c r="J187" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="K187" s="4" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
@@ -9857,156 +9863,156 @@
         <v>245</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G188" s="2"/>
       <c r="H188" s="5"/>
       <c r="I188" s="4" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="J188" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>931</v>
-      </c>
-      <c r="K188" s="4" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="B189" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="G189" s="2"/>
       <c r="H189" s="5"/>
       <c r="I189" s="4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="B190" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G190" s="2"/>
       <c r="H190" s="5"/>
       <c r="I190" s="4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="J190" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>941</v>
-      </c>
-      <c r="K190" s="4" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="B191" s="4" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G191" s="2"/>
       <c r="H191" s="5"/>
       <c r="I191" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="K191" s="6" t="s">
         <v>945</v>
-      </c>
-      <c r="J191" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="K191" s="6" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="B192" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G192" s="2"/>
       <c r="H192" s="5"/>
       <c r="I192" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>950</v>
-      </c>
-      <c r="J192" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="K192" s="4" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="B193" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="G193" s="2"/>
       <c r="H193" s="5"/>
       <c r="I193" s="4" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="K193" s="4" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="B194" s="4" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="G194" s="2"/>
       <c r="H194" s="5"/>
       <c r="I194" s="4" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="K194" s="7" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
@@ -10014,24 +10020,24 @@
         <v>27</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G195" s="2"/>
       <c r="H195" s="5"/>
       <c r="I195" s="4" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
@@ -10039,68 +10045,68 @@
         <v>245</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="G196" s="2"/>
       <c r="H196" s="5"/>
       <c r="I196" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>973</v>
-      </c>
-      <c r="J196" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="K196" s="4" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="B197" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="G197" s="2"/>
       <c r="H197" s="5"/>
       <c r="I197" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>978</v>
-      </c>
-      <c r="J197" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="K197" s="4" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="B198" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G198" s="2"/>
       <c r="H198" s="5"/>
       <c r="I198" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>983</v>
-      </c>
-      <c r="J198" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="K198" s="4" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
@@ -10108,90 +10114,90 @@
         <v>27</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="G199" s="2"/>
       <c r="H199" s="5"/>
       <c r="I199" s="4" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="J199" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>988</v>
-      </c>
-      <c r="K199" s="4" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="B200" s="4" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="G200" s="2"/>
       <c r="H200" s="5"/>
       <c r="I200" s="4" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="K200" s="4" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="B201" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="G201" s="2"/>
       <c r="H201" s="5"/>
       <c r="I201" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>998</v>
-      </c>
-      <c r="J201" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="K201" s="4" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="B202" s="4" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="G202" s="2"/>
       <c r="H202" s="5"/>
       <c r="I202" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
@@ -10199,68 +10205,68 @@
         <v>88</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G203" s="2"/>
       <c r="H203" s="5"/>
       <c r="I203" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="J203" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>1009</v>
-      </c>
-      <c r="K203" s="4" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="B204" s="4" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="G204" s="2"/>
       <c r="H204" s="5"/>
       <c r="I204" s="4" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="J204" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>1014</v>
-      </c>
-      <c r="K204" s="4" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="B205" s="4" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="G205" s="2"/>
       <c r="H205" s="5"/>
       <c r="I205" s="4" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="K205" s="4" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
@@ -10268,178 +10274,178 @@
         <v>88</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="G206" s="2"/>
       <c r="H206" s="5"/>
       <c r="I206" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>1024</v>
-      </c>
-      <c r="J206" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="K206" s="4" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="B207" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="G207" s="2"/>
       <c r="H207" s="5"/>
       <c r="I207" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>1029</v>
-      </c>
-      <c r="J207" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="K207" s="4" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="B208" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="G208" s="2"/>
       <c r="H208" s="5"/>
       <c r="I208" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>1034</v>
-      </c>
-      <c r="J208" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="K208" s="4" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="B209" s="4" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G209" s="2"/>
       <c r="H209" s="5"/>
       <c r="I209" s="4" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="K209" s="4" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="B210" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="G210" s="2"/>
       <c r="H210" s="5"/>
       <c r="I210" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>1045</v>
-      </c>
-      <c r="J210" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="K210" s="4" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="B211" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="G211" s="2"/>
       <c r="H211" s="5"/>
       <c r="I211" s="4" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="K211" s="4" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="B212" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="G212" s="2"/>
       <c r="H212" s="5"/>
       <c r="I212" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K212" s="6" t="s">
         <v>1056</v>
-      </c>
-      <c r="J212" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="K212" s="6" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="B213" s="4" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="G213" s="2"/>
       <c r="H213" s="5"/>
       <c r="I213" s="4" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="K213" s="7" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
@@ -10447,24 +10453,24 @@
         <v>88</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="G214" s="2"/>
       <c r="H214" s="5"/>
       <c r="I214" s="4" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="K214" s="4" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
@@ -10472,46 +10478,46 @@
         <v>88</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="G215" s="2"/>
       <c r="H215" s="5"/>
       <c r="I215" s="4" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="B216" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="G216" s="2"/>
       <c r="H216" s="5"/>
       <c r="I216" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>1079</v>
-      </c>
-      <c r="J216" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="K216" s="4" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
@@ -10519,68 +10525,68 @@
         <v>27</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G217" s="2"/>
       <c r="H217" s="5"/>
       <c r="I217" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>1084</v>
-      </c>
-      <c r="J217" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="K217" s="4" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="B218" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="G218" s="2"/>
       <c r="H218" s="5"/>
       <c r="I218" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>1089</v>
-      </c>
-      <c r="J218" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="K218" s="4" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="B219" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="G219" s="2"/>
       <c r="H219" s="5"/>
       <c r="I219" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>1094</v>
-      </c>
-      <c r="J219" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="K219" s="4" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
@@ -10588,46 +10594,46 @@
         <v>88</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="G220" s="2"/>
       <c r="H220" s="5"/>
       <c r="I220" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>1099</v>
-      </c>
-      <c r="J220" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="K220" s="4" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
       <c r="B221" s="4" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="G221" s="2"/>
       <c r="H221" s="5"/>
       <c r="I221" s="4" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="K221" s="4" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
@@ -10635,46 +10641,46 @@
         <v>27</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="G222" s="2"/>
       <c r="H222" s="5"/>
       <c r="I222" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>1110</v>
-      </c>
-      <c r="J222" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="K222" s="4" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="B223" s="4" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="G223" s="2"/>
       <c r="H223" s="5"/>
       <c r="I223" s="4" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="J223" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>1115</v>
-      </c>
-      <c r="K223" s="4" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
@@ -10682,68 +10688,68 @@
         <v>88</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="G224" s="2"/>
       <c r="H224" s="5"/>
       <c r="I224" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>1119</v>
-      </c>
-      <c r="J224" s="1" t="s">
-        <v>1120</v>
-      </c>
-      <c r="K224" s="4" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="B225" s="4" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="G225" s="2"/>
       <c r="H225" s="5"/>
       <c r="I225" s="4" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="K225" s="4" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="B226" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="G226" s="2"/>
       <c r="H226" s="5"/>
       <c r="I226" s="4" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="J226" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>1130</v>
-      </c>
-      <c r="K226" s="4" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
@@ -10751,134 +10757,134 @@
         <v>27</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="G227" s="2"/>
       <c r="H227" s="5"/>
       <c r="I227" s="4" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="J227" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K227" s="4" t="s">
         <v>1134</v>
-      </c>
-      <c r="K227" s="4" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
       <c r="B228" s="4" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="G228" s="2"/>
       <c r="H228" s="5"/>
       <c r="I228" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>1138</v>
-      </c>
-      <c r="J228" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="K228" s="4" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
       <c r="B229" s="4" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="G229" s="2"/>
       <c r="H229" s="5"/>
       <c r="I229" s="4" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="K229" s="4" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
       <c r="B230" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="G230" s="2"/>
       <c r="H230" s="5"/>
       <c r="I230" s="4" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>1149</v>
-      </c>
-      <c r="J230" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="K230" s="4" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
       <c r="B231" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="G231" s="2"/>
       <c r="H231" s="5"/>
       <c r="I231" s="4" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="K231" s="4" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
       <c r="B232" s="4" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G232" s="2"/>
       <c r="H232" s="5"/>
       <c r="I232" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>1160</v>
-      </c>
-      <c r="J232" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="K232" s="4" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
@@ -10886,46 +10892,46 @@
         <v>270</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="G233" s="2"/>
       <c r="H233" s="5"/>
       <c r="I233" s="4" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="K233" s="4" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
       <c r="B234" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="G234" s="2"/>
       <c r="H234" s="5"/>
       <c r="I234" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>1171</v>
-      </c>
-      <c r="J234" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="K234" s="4" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
@@ -10933,244 +10939,244 @@
         <v>245</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="G235" s="2"/>
       <c r="H235" s="5"/>
       <c r="I235" s="4" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="J235" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>1177</v>
-      </c>
-      <c r="K235" s="4" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
       <c r="B236" s="1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="G236" s="2"/>
       <c r="H236" s="5"/>
       <c r="I236" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>1181</v>
-      </c>
-      <c r="J236" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="K236" s="4" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
       <c r="B237" s="1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="G237" s="2"/>
       <c r="H237" s="5"/>
       <c r="I237" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>1186</v>
-      </c>
-      <c r="J237" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="K237" s="4" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
       <c r="B238" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="G238" s="2"/>
       <c r="H238" s="5"/>
       <c r="I238" s="4" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="J238" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>1191</v>
-      </c>
-      <c r="K238" s="4" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
       <c r="B239" s="1" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="G239" s="2"/>
       <c r="H239" s="5"/>
       <c r="I239" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>1195</v>
-      </c>
-      <c r="J239" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="K239" s="4" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
       <c r="B240" s="4" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="G240" s="2"/>
       <c r="H240" s="5"/>
       <c r="I240" s="4" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="K240" s="4" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
       <c r="B241" s="4" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="G241" s="2"/>
       <c r="H241" s="5"/>
       <c r="I241" s="4" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="K241" s="4" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
       <c r="B242" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="G242" s="2"/>
       <c r="H242" s="5"/>
       <c r="I242" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>1212</v>
-      </c>
-      <c r="J242" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="K242" s="4" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
       <c r="B243" s="4" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="G243" s="2"/>
       <c r="H243" s="5"/>
       <c r="I243" s="4" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="K243" s="4" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
       <c r="B244" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="G244" s="2"/>
       <c r="H244" s="5"/>
       <c r="I244" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>1223</v>
-      </c>
-      <c r="J244" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="K244" s="4" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
       <c r="B245" s="4" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="G245" s="2"/>
       <c r="H245" s="5"/>
       <c r="I245" s="4" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="K245" s="4" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
@@ -11178,68 +11184,68 @@
         <v>270</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="G246" s="2"/>
       <c r="H246" s="5"/>
       <c r="I246" s="4" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K246" s="4" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
       <c r="B247" s="1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="G247" s="2"/>
       <c r="H247" s="5"/>
       <c r="I247" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K247" s="6" t="s">
         <v>1237</v>
-      </c>
-      <c r="J247" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="K247" s="6" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
       <c r="B248" s="4" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="G248" s="2"/>
       <c r="H248" s="5"/>
       <c r="I248" s="4" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="K248" s="6" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
@@ -11247,68 +11253,68 @@
         <v>27</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="G249" s="2"/>
       <c r="H249" s="5"/>
       <c r="I249" s="4" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="K249" s="4" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1">
       <c r="B250" s="4" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="G250" s="2"/>
       <c r="H250" s="5"/>
       <c r="I250" s="4" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="J250" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>1254</v>
-      </c>
-      <c r="K250" s="4" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="251" ht="15.75" customHeight="1">
       <c r="B251" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="G251" s="2"/>
       <c r="H251" s="5"/>
       <c r="I251" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>1258</v>
-      </c>
-      <c r="J251" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="K251" s="4" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
@@ -11316,90 +11322,90 @@
         <v>27</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="G252" s="2"/>
       <c r="H252" s="5"/>
       <c r="I252" s="4" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="J252" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>1263</v>
-      </c>
-      <c r="K252" s="4" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
       <c r="B253" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="G253" s="2"/>
       <c r="H253" s="5"/>
       <c r="I253" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>1267</v>
-      </c>
-      <c r="J253" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="K253" s="4" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
       <c r="B254" s="1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="G254" s="2"/>
       <c r="H254" s="5"/>
       <c r="I254" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>1272</v>
-      </c>
-      <c r="J254" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="K254" s="4" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
       <c r="B255" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="G255" s="2"/>
       <c r="H255" s="5"/>
       <c r="I255" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>1277</v>
-      </c>
-      <c r="J255" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="K255" s="4" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
@@ -11407,46 +11413,46 @@
         <v>270</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="G256" s="2"/>
       <c r="H256" s="5"/>
       <c r="I256" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>1282</v>
-      </c>
-      <c r="J256" s="1" t="s">
-        <v>1283</v>
-      </c>
-      <c r="K256" s="4" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
       <c r="B257" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="G257" s="2"/>
       <c r="H257" s="5"/>
       <c r="I257" s="4" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="K257" s="7" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
@@ -11454,46 +11460,46 @@
         <v>270</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="G258" s="2"/>
       <c r="H258" s="5"/>
       <c r="I258" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>1293</v>
-      </c>
-      <c r="J258" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="K258" s="4" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
       <c r="B259" s="4" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="G259" s="2"/>
       <c r="H259" s="5"/>
       <c r="I259" s="4" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="K259" s="4" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
@@ -11501,46 +11507,46 @@
         <v>245</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="G260" s="2"/>
       <c r="H260" s="5"/>
       <c r="I260" s="4" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="J260" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>1304</v>
-      </c>
-      <c r="K260" s="4" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
       <c r="B261" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="G261" s="2"/>
       <c r="H261" s="5"/>
       <c r="I261" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>1308</v>
-      </c>
-      <c r="J261" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="K261" s="4" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1">
@@ -11548,46 +11554,46 @@
         <v>270</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G262" s="2"/>
       <c r="H262" s="5"/>
       <c r="I262" s="4" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="J262" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>1313</v>
-      </c>
-      <c r="K262" s="4" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
       <c r="B263" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="G263" s="2"/>
       <c r="H263" s="5"/>
       <c r="I263" s="4" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="J263" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K263" s="4" t="s">
         <v>1317</v>
-      </c>
-      <c r="K263" s="4" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
@@ -11595,24 +11601,24 @@
         <v>245</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G264" s="2"/>
       <c r="H264" s="5"/>
       <c r="I264" s="4" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="J264" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>1321</v>
-      </c>
-      <c r="K264" s="4" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
@@ -11620,46 +11626,46 @@
         <v>270</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="G265" s="2"/>
       <c r="H265" s="5"/>
       <c r="I265" s="4" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="J265" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K265" s="4" t="s">
         <v>1325</v>
-      </c>
-      <c r="K265" s="4" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
       <c r="B266" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="G266" s="2"/>
       <c r="H266" s="5"/>
       <c r="I266" s="4" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="J266" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>1329</v>
-      </c>
-      <c r="K266" s="4" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
@@ -11667,68 +11673,68 @@
         <v>245</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="G267" s="2"/>
       <c r="H267" s="5"/>
       <c r="I267" s="4" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="J267" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>1333</v>
-      </c>
-      <c r="K267" s="4" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
       <c r="B268" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="G268" s="2"/>
       <c r="H268" s="5"/>
       <c r="I268" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K268" s="4" t="s">
         <v>1337</v>
-      </c>
-      <c r="J268" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="K268" s="4" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
       <c r="B269" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G269" s="2"/>
       <c r="H269" s="5"/>
       <c r="I269" s="4" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="J269" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="K269" s="4" t="s">
         <v>1342</v>
-      </c>
-      <c r="K269" s="4" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
@@ -11736,24 +11742,24 @@
         <v>245</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G270" s="2"/>
       <c r="H270" s="5"/>
       <c r="I270" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>1346</v>
-      </c>
-      <c r="J270" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="K270" s="4" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
@@ -11761,134 +11767,134 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G271" s="2"/>
       <c r="H271" s="5"/>
       <c r="I271" s="4" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="J271" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>1351</v>
-      </c>
-      <c r="K271" s="4" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
       <c r="B272" s="1" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G272" s="2"/>
       <c r="H272" s="5"/>
       <c r="I272" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>1355</v>
-      </c>
-      <c r="J272" s="1" t="s">
-        <v>1356</v>
-      </c>
-      <c r="K272" s="4" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
       <c r="B273" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G273" s="2"/>
       <c r="H273" s="5"/>
       <c r="I273" s="4" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="J273" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K273" s="4" t="s">
         <v>1360</v>
-      </c>
-      <c r="K273" s="4" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
       <c r="B274" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G274" s="2"/>
       <c r="H274" s="5"/>
       <c r="I274" s="4" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="J274" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>1364</v>
-      </c>
-      <c r="K274" s="4" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
       <c r="B275" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="G275" s="2"/>
       <c r="H275" s="5"/>
       <c r="I275" s="4" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="J275" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="K275" s="4" t="s">
         <v>1368</v>
-      </c>
-      <c r="K275" s="4" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
       <c r="B276" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="G276" s="2"/>
       <c r="H276" s="5"/>
       <c r="I276" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>1372</v>
-      </c>
-      <c r="J276" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="K276" s="4" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
@@ -11896,112 +11902,112 @@
         <v>245</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G277" s="2"/>
       <c r="H277" s="5"/>
       <c r="I277" s="4" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="J277" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>1377</v>
-      </c>
-      <c r="K277" s="4" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
       <c r="B278" s="1" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G278" s="2"/>
       <c r="H278" s="5"/>
       <c r="I278" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K278" s="4" t="s">
         <v>1381</v>
-      </c>
-      <c r="J278" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="K278" s="4" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
       <c r="B279" s="1" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G279" s="2"/>
       <c r="H279" s="5"/>
       <c r="I279" s="4" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="J279" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="K279" s="4" t="s">
         <v>1386</v>
-      </c>
-      <c r="K279" s="4" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
       <c r="B280" s="1" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G280" s="2"/>
       <c r="H280" s="5"/>
       <c r="I280" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>1390</v>
-      </c>
-      <c r="J280" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="K280" s="4" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
       <c r="B281" s="1" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G281" s="2"/>
       <c r="H281" s="5"/>
       <c r="I281" s="4" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="K281" s="4" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
@@ -12009,90 +12015,90 @@
         <v>270</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G282" s="2"/>
       <c r="H282" s="5"/>
       <c r="I282" s="4" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="J282" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>1377</v>
-      </c>
-      <c r="K282" s="4" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
       <c r="B283" s="1" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="G283" s="2"/>
       <c r="H283" s="5"/>
       <c r="I283" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K283" s="4" t="s">
         <v>1403</v>
-      </c>
-      <c r="J283" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="K283" s="4" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
       <c r="B284" s="1" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="G284" s="2"/>
       <c r="H284" s="5"/>
       <c r="I284" s="4" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="J284" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>1408</v>
-      </c>
-      <c r="K284" s="4" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
       <c r="B285" s="1" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="G285" s="2"/>
       <c r="H285" s="5"/>
       <c r="I285" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K285" s="4" t="s">
         <v>1412</v>
-      </c>
-      <c r="J285" s="1" t="s">
-        <v>1413</v>
-      </c>
-      <c r="K285" s="4" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
@@ -12100,46 +12106,46 @@
         <v>245</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G286" s="2"/>
       <c r="H286" s="5"/>
       <c r="I286" s="4" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="J286" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>1417</v>
-      </c>
-      <c r="K286" s="4" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
       <c r="B287" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="G287" s="2"/>
       <c r="H287" s="5"/>
       <c r="I287" s="4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="K287" s="4" t="s">
         <v>1421</v>
-      </c>
-      <c r="J287" s="1" t="s">
-        <v>1422</v>
-      </c>
-      <c r="K287" s="4" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
@@ -12147,46 +12153,46 @@
         <v>270</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="G288" s="2"/>
       <c r="H288" s="5"/>
       <c r="I288" s="4" t="s">
+        <v>1427</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>1426</v>
-      </c>
-      <c r="J288" s="1" t="s">
-        <v>1427</v>
-      </c>
-      <c r="K288" s="4" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
       <c r="B289" s="1" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="G289" s="2"/>
       <c r="H289" s="5"/>
       <c r="I289" s="4" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="J289" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="K289" s="4" t="s">
         <v>1431</v>
-      </c>
-      <c r="K289" s="4" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
@@ -12194,68 +12200,68 @@
         <v>88</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="G290" s="2"/>
       <c r="H290" s="5"/>
       <c r="I290" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>1435</v>
-      </c>
-      <c r="J290" s="1" t="s">
-        <v>1436</v>
-      </c>
-      <c r="K290" s="4" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
       <c r="B291" s="1" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="G291" s="2"/>
       <c r="H291" s="5"/>
       <c r="I291" s="4" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="J291" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>1440</v>
-      </c>
-      <c r="K291" s="4" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
       <c r="B292" s="4" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="G292" s="2"/>
       <c r="H292" s="5"/>
       <c r="I292" s="4" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="K292" s="4" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1">
@@ -12263,24 +12269,24 @@
         <v>88</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="G293" s="2"/>
       <c r="H293" s="5"/>
       <c r="I293" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="K293" s="4" t="s">
         <v>1450</v>
-      </c>
-      <c r="J293" s="1" t="s">
-        <v>1451</v>
-      </c>
-      <c r="K293" s="4" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
@@ -12288,222 +12294,222 @@
         <v>270</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="G294" s="2"/>
       <c r="H294" s="5"/>
       <c r="I294" s="4" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="J294" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K294" s="4" t="s">
         <v>1456</v>
-      </c>
-      <c r="K294" s="4" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
       <c r="B295" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G295" s="2"/>
       <c r="H295" s="5"/>
       <c r="I295" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>1460</v>
-      </c>
-      <c r="J295" s="1" t="s">
-        <v>1461</v>
-      </c>
-      <c r="K295" s="4" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
       <c r="B296" s="1" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="G296" s="2"/>
       <c r="H296" s="5"/>
       <c r="I296" s="4" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="J296" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>1465</v>
-      </c>
-      <c r="K296" s="4" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
       <c r="B297" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="G297" s="2"/>
       <c r="H297" s="5"/>
       <c r="I297" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>1469</v>
-      </c>
-      <c r="J297" s="1" t="s">
-        <v>1470</v>
-      </c>
-      <c r="K297" s="4" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
       <c r="B298" s="4" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="G298" s="2"/>
       <c r="H298" s="5"/>
       <c r="I298" s="4" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="K298" s="4" t="s">
         <v>1474</v>
-      </c>
-      <c r="J298" s="1" t="s">
-        <v>1475</v>
-      </c>
-      <c r="K298" s="4" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
       <c r="B299" s="4" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="G299" s="2"/>
       <c r="H299" s="5"/>
       <c r="I299" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="K299" s="4" t="s">
         <v>1479</v>
-      </c>
-      <c r="J299" s="1" t="s">
-        <v>1480</v>
-      </c>
-      <c r="K299" s="4" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="B300" s="4" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="G300" s="2"/>
       <c r="H300" s="5"/>
       <c r="I300" s="4" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="K300" s="4" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
       <c r="B301" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="G301" s="2"/>
       <c r="H301" s="5"/>
       <c r="I301" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="K301" s="4" t="s">
         <v>1490</v>
-      </c>
-      <c r="J301" s="1" t="s">
-        <v>1491</v>
-      </c>
-      <c r="K301" s="4" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
       <c r="B302" s="1" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="G302" s="2"/>
       <c r="H302" s="5"/>
       <c r="I302" s="4" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="J302" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="K302" s="4" t="s">
         <v>1495</v>
-      </c>
-      <c r="K302" s="4" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1">
       <c r="B303" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="G303" s="2"/>
       <c r="H303" s="5"/>
       <c r="I303" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="K303" s="4" t="s">
         <v>1499</v>
-      </c>
-      <c r="J303" s="1" t="s">
-        <v>1500</v>
-      </c>
-      <c r="K303" s="4" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
@@ -12511,46 +12517,46 @@
         <v>88</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="G304" s="2"/>
       <c r="H304" s="5"/>
       <c r="I304" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>1504</v>
-      </c>
-      <c r="J304" s="1" t="s">
-        <v>1505</v>
-      </c>
-      <c r="K304" s="4" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
       <c r="B305" s="1" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D305" s="11" t="s">
         <v>1508</v>
+      </c>
+      <c r="D305" s="12" t="s">
+        <v>1509</v>
       </c>
       <c r="G305" s="2"/>
       <c r="H305" s="5"/>
-      <c r="I305" s="11" t="s">
+      <c r="I305" s="12" t="s">
+        <v>1510</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="K305" s="12" t="s">
         <v>1509</v>
-      </c>
-      <c r="J305" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="K305" s="11" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
@@ -12558,156 +12564,156 @@
         <v>270</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="G306" s="2"/>
       <c r="H306" s="5"/>
       <c r="I306" s="4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="K306" s="4" t="s">
         <v>1514</v>
-      </c>
-      <c r="J306" s="1" t="s">
-        <v>1515</v>
-      </c>
-      <c r="K306" s="4" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
       <c r="B307" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="G307" s="2"/>
       <c r="H307" s="5"/>
       <c r="I307" s="4" t="s">
+        <v>1520</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K307" s="4" t="s">
         <v>1519</v>
-      </c>
-      <c r="J307" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="K307" s="4" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
       <c r="B308" s="4" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="G308" s="2"/>
       <c r="H308" s="5"/>
       <c r="I308" s="4" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="J308" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="K308" s="4" t="s">
         <v>1524</v>
-      </c>
-      <c r="K308" s="4" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
       <c r="B309" s="4" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="G309" s="2"/>
       <c r="H309" s="5"/>
       <c r="I309" s="4" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="J309" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="K309" s="4" t="s">
         <v>1529</v>
-      </c>
-      <c r="K309" s="4" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
       <c r="B310" s="4" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="G310" s="2"/>
       <c r="H310" s="5"/>
       <c r="I310" s="4" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="K310" s="4" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
       <c r="B311" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="G311" s="2"/>
       <c r="H311" s="5"/>
       <c r="I311" s="4" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="K311" s="4" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
       <c r="B312" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="G312" s="2"/>
       <c r="H312" s="5"/>
       <c r="I312" s="4" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="K312" s="4" t="s">
         <v>1545</v>
-      </c>
-      <c r="J312" s="1" t="s">
-        <v>1546</v>
-      </c>
-      <c r="K312" s="4" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
@@ -12715,24 +12721,24 @@
         <v>245</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="G313" s="2"/>
       <c r="H313" s="5"/>
       <c r="I313" s="4" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="K313" s="4" t="s">
         <v>1550</v>
-      </c>
-      <c r="J313" s="1" t="s">
-        <v>1551</v>
-      </c>
-      <c r="K313" s="4" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
@@ -12740,24 +12746,24 @@
         <v>245</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="G314" s="2"/>
       <c r="H314" s="5"/>
       <c r="I314" s="4" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J314" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K314" s="4" t="s">
         <v>1555</v>
-      </c>
-      <c r="K314" s="4" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
@@ -12765,90 +12771,90 @@
         <v>88</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="G315" s="2"/>
       <c r="H315" s="5"/>
       <c r="I315" s="4" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="J315" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="K315" s="4" t="s">
         <v>1559</v>
-      </c>
-      <c r="K315" s="4" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
       <c r="B316" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="G316" s="2"/>
       <c r="H316" s="5"/>
       <c r="I316" s="4" t="s">
+        <v>1564</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K316" s="4" t="s">
         <v>1563</v>
-      </c>
-      <c r="J316" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="K316" s="4" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
       <c r="B317" s="1" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="G317" s="2"/>
       <c r="H317" s="5"/>
       <c r="I317" s="4" t="s">
+        <v>1569</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K317" s="4" t="s">
         <v>1568</v>
-      </c>
-      <c r="J317" s="1" t="s">
-        <v>1569</v>
-      </c>
-      <c r="K317" s="4" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
       <c r="B318" s="1" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="G318" s="2"/>
       <c r="H318" s="5"/>
       <c r="I318" s="4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K318" s="4" t="s">
         <v>1573</v>
-      </c>
-      <c r="J318" s="1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="K318" s="4" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
@@ -12856,24 +12862,24 @@
         <v>37</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="G319" s="2"/>
       <c r="H319" s="5"/>
       <c r="I319" s="4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K319" s="4" t="s">
         <v>1578</v>
-      </c>
-      <c r="J319" s="1" t="s">
-        <v>1579</v>
-      </c>
-      <c r="K319" s="4" t="s">
-        <v>1577</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
@@ -12881,46 +12887,46 @@
         <v>88</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="G320" s="2"/>
       <c r="H320" s="5"/>
       <c r="I320" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K320" s="4" t="s">
         <v>1583</v>
-      </c>
-      <c r="J320" s="1" t="s">
-        <v>1584</v>
-      </c>
-      <c r="K320" s="4" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
       <c r="B321" s="1" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D321" s="11" t="s">
         <v>1587</v>
+      </c>
+      <c r="D321" s="12" t="s">
+        <v>1588</v>
       </c>
       <c r="G321" s="2"/>
       <c r="H321" s="5"/>
-      <c r="I321" s="11" t="s">
+      <c r="I321" s="12" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K321" s="12" t="s">
         <v>1588</v>
-      </c>
-      <c r="J321" s="1" t="s">
-        <v>1589</v>
-      </c>
-      <c r="K321" s="11" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
@@ -12928,46 +12934,46 @@
         <v>245</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="G322" s="2"/>
       <c r="H322" s="5"/>
       <c r="I322" s="4" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="J322" s="1" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="K322" s="4" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="B323" s="1" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="G323" s="2"/>
       <c r="H323" s="5"/>
       <c r="I323" s="4" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="J323" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="K323" s="4" t="s">
         <v>1599</v>
-      </c>
-      <c r="K323" s="4" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
@@ -12975,134 +12981,134 @@
         <v>88</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="G324" s="2"/>
       <c r="H324" s="5"/>
       <c r="I324" s="4" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="J324" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="K324" s="7" t="s">
         <v>1603</v>
-      </c>
-      <c r="K324" s="7" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
       <c r="B325" s="1" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="G325" s="2"/>
       <c r="H325" s="5"/>
       <c r="I325" s="4" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="J325" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K325" s="4" t="s">
         <v>1607</v>
-      </c>
-      <c r="K325" s="4" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
       <c r="B326" s="1" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="G326" s="2"/>
       <c r="H326" s="5"/>
       <c r="I326" s="4" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="J326" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="K326" s="4" t="s">
         <v>1611</v>
-      </c>
-      <c r="K326" s="4" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1">
       <c r="B327" s="1" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="G327" s="2"/>
       <c r="H327" s="5"/>
       <c r="I327" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="K327" s="4" t="s">
         <v>1615</v>
-      </c>
-      <c r="J327" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="K327" s="4" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
       <c r="B328" s="1" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="G328" s="2"/>
       <c r="H328" s="5"/>
       <c r="I328" s="4" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="K328" s="4" t="s">
         <v>1620</v>
-      </c>
-      <c r="J328" s="1" t="s">
-        <v>1621</v>
-      </c>
-      <c r="K328" s="4" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
       <c r="B329" s="4" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="G329" s="2"/>
       <c r="H329" s="5"/>
       <c r="I329" s="4" t="s">
+        <v>1626</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="K329" s="4" t="s">
         <v>1625</v>
-      </c>
-      <c r="J329" s="1" t="s">
-        <v>1626</v>
-      </c>
-      <c r="K329" s="4" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
@@ -13110,24 +13116,24 @@
         <v>37</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="G330" s="2"/>
       <c r="H330" s="5"/>
       <c r="I330" s="4" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="J330" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="K330" s="4" t="s">
         <v>1630</v>
-      </c>
-      <c r="K330" s="4" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
@@ -13135,90 +13141,90 @@
         <v>88</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="G331" s="2"/>
       <c r="H331" s="5"/>
       <c r="I331" s="4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="J331" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="K331" s="4" t="s">
         <v>1634</v>
-      </c>
-      <c r="J331" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="K331" s="4" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
       <c r="B332" s="4" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="D332" s="7" t="s">
-        <v>1638</v>
-      </c>
-      <c r="G332" s="8"/>
-      <c r="H332" s="9"/>
+        <v>1639</v>
+      </c>
+      <c r="G332" s="9"/>
+      <c r="H332" s="10"/>
       <c r="I332" s="4" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="K332" s="7" t="s">
         <v>1639</v>
-      </c>
-      <c r="J332" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="K332" s="7" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
       <c r="B333" s="1" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="G333" s="2"/>
       <c r="H333" s="5"/>
       <c r="I333" s="4" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="K333" s="4" t="s">
         <v>1644</v>
-      </c>
-      <c r="J333" s="1" t="s">
-        <v>1645</v>
-      </c>
-      <c r="K333" s="4" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1">
       <c r="B334" s="4" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="G334" s="2"/>
       <c r="H334" s="5"/>
       <c r="I334" s="4" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="K334" s="4" t="s">
         <v>1649</v>
-      </c>
-      <c r="J334" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="K334" s="4" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="335" ht="15.75" customHeight="1">
@@ -13226,24 +13232,24 @@
         <v>88</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="G335" s="2"/>
       <c r="H335" s="5"/>
       <c r="I335" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="K335" s="4" t="s">
         <v>1654</v>
-      </c>
-      <c r="J335" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="K335" s="4" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="336" ht="15.75" customHeight="1">
@@ -13251,24 +13257,24 @@
         <v>88</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="G336" s="2"/>
       <c r="H336" s="5"/>
       <c r="I336" s="4" t="s">
+        <v>1660</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="K336" s="4" t="s">
         <v>1659</v>
-      </c>
-      <c r="J336" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="K336" s="4" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
@@ -13276,266 +13282,266 @@
         <v>37</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="G337" s="2"/>
       <c r="H337" s="5"/>
       <c r="I337" s="4" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="J337" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="K337" s="4" t="s">
         <v>1664</v>
-      </c>
-      <c r="K337" s="4" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
       <c r="B338" s="4" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="D338" s="7" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="G338" s="2"/>
       <c r="H338" s="5"/>
       <c r="I338" s="4" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="J338" s="1" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="K338" s="7" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
       <c r="B339" s="1" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="G339" s="2"/>
       <c r="H339" s="5"/>
       <c r="I339" s="4" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="J339" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K339" s="4" t="s">
         <v>1674</v>
-      </c>
-      <c r="K339" s="4" t="s">
-        <v>1673</v>
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
       <c r="B340" s="4" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="G340" s="2"/>
       <c r="H340" s="5"/>
       <c r="I340" s="4" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="J340" s="1" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="K340" s="4" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
       <c r="B341" s="4" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="G341" s="2"/>
       <c r="H341" s="5"/>
       <c r="I341" s="4" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="J341" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="K341" s="4" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
       <c r="B342" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="G342" s="2"/>
       <c r="H342" s="5"/>
       <c r="I342" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="K342" s="4" t="s">
         <v>1690</v>
-      </c>
-      <c r="J342" s="1" t="s">
-        <v>1691</v>
-      </c>
-      <c r="K342" s="4" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1">
       <c r="B343" s="1" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="G343" s="2"/>
       <c r="H343" s="5"/>
       <c r="I343" s="4" t="s">
+        <v>1696</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="K343" s="4" t="s">
         <v>1695</v>
-      </c>
-      <c r="J343" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="K343" s="4" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1">
       <c r="B344" s="4" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="G344" s="2"/>
       <c r="H344" s="5"/>
       <c r="I344" s="4" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="J344" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="K344" s="4" t="s">
         <v>1701</v>
-      </c>
-      <c r="K344" s="4" t="s">
-        <v>1700</v>
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1">
       <c r="B345" s="1" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="G345" s="2"/>
       <c r="H345" s="5"/>
       <c r="I345" s="4" t="s">
+        <v>1706</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K345" s="4" t="s">
         <v>1705</v>
-      </c>
-      <c r="J345" s="1" t="s">
-        <v>1706</v>
-      </c>
-      <c r="K345" s="4" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
       <c r="B346" s="4" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="G346" s="2"/>
       <c r="H346" s="5"/>
       <c r="I346" s="4" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="J346" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K346" s="4" t="s">
         <v>1710</v>
-      </c>
-      <c r="K346" s="4" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1">
       <c r="B347" s="1" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G347" s="2"/>
       <c r="H347" s="5"/>
       <c r="I347" s="4" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="K347" s="4" t="s">
         <v>1714</v>
-      </c>
-      <c r="J347" s="1" t="s">
-        <v>1715</v>
-      </c>
-      <c r="K347" s="4" t="s">
-        <v>1713</v>
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1">
       <c r="B348" s="4" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="G348" s="2"/>
       <c r="H348" s="5"/>
       <c r="I348" s="4" t="s">
+        <v>1720</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="K348" s="4" t="s">
         <v>1719</v>
-      </c>
-      <c r="J348" s="1" t="s">
-        <v>1720</v>
-      </c>
-      <c r="K348" s="4" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="349" ht="15.75" customHeight="1">
@@ -13788,7 +13794,7 @@
     </row>
     <row r="411" ht="15.75" customHeight="1">
       <c r="G411" s="2"/>
-      <c r="H411" s="12"/>
+      <c r="H411" s="13"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="G412" s="2"/>
@@ -14300,7 +14306,7 @@
     </row>
     <row r="539" ht="15.75" customHeight="1">
       <c r="G539" s="2"/>
-      <c r="H539" s="12"/>
+      <c r="H539" s="13"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="G540" s="2"/>
@@ -14804,7 +14810,7 @@
     </row>
     <row r="665" ht="15.75" customHeight="1">
       <c r="G665" s="2"/>
-      <c r="H665" s="12"/>
+      <c r="H665" s="13"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
       <c r="G666" s="2"/>

--- a/translation/xlsx/_tsum_023_1.xlsx
+++ b/translation/xlsx/_tsum_023_1.xlsx
@@ -3072,7 +3072,7 @@
     <t xml:space="preserve"> We heard that Sankai from the police headquarters started work with the Public Safety Division. </t>
   </si>
   <si>
-    <t xml:space="preserve">...전해 들은 바로는 현경 폭력단 대책 본부의 야마우미 씨께서, 공안부와 조정을 하고 있다고 하더군요. </t>
+    <t xml:space="preserve">...전해 들은 바로는 현경 폭력단 대책 본부의 산카이 씨께서, 공안부와 조정을 하고 있다고 하더군요. </t>
   </si>
   <si>
     <t xml:space="preserve">......전해 들은 바로는 현경 폭력 대책 본부의 야마우미 씨께서, 공안부와 조정을 하고 있다고 들었습니다. </t>
@@ -10254,7 +10254,7 @@
       <c r="C205" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="D205" s="4" t="s">
+      <c r="D205" s="8" t="s">
         <v>1018</v>
       </c>
       <c r="G205" s="2"/>
